--- a/West.EnterpriseUX.Automation/West.EnterpriseUX.Automation.MobileNew/TestData/DVV/Charts_252696.xlsx
+++ b/West.EnterpriseUX.Automation/West.EnterpriseUX.Automation.MobileNew/TestData/DVV/Charts_252696.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patilg\source\repos\UAT_Test\EnterpriseUX.MobileAutomation\West.EnterpriseUX.Automation\West.EnterpriseUX.Automation.MobileNew\TestData\DEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7860A3E-5526-4DF5-AC65-33EF932A2D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FFBF9A-DCF8-48A2-880D-C24C151FE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts_252696" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Inbox</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Sales Orders</t>
   </si>
   <si>
-    <t>ChartType</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
-    <t>Dimension</t>
-  </si>
-  <si>
     <t>Pie</t>
   </si>
   <si>
@@ -55,6 +49,24 @@
   </si>
   <si>
     <t>Overall Processing Status ID</t>
+  </si>
+  <si>
+    <t>Dimension1</t>
+  </si>
+  <si>
+    <t>Dimension2</t>
+  </si>
+  <si>
+    <t>ChartType1</t>
+  </si>
+  <si>
+    <t>ChartType2</t>
+  </si>
+  <si>
+    <t>Doughnut</t>
+  </si>
+  <si>
+    <t>Account Manager ID</t>
   </si>
 </sst>
 </file>
@@ -372,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,13 +395,14 @@
     <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -397,16 +410,22 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -414,13 +433,19 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
